--- a/TestData/FileUpload_Data.xlsx
+++ b/TestData/FileUpload_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A0176-5F92-4E0F-953C-1EA2C958BB6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC04F9-D7B2-416D-89D7-F262178FACF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,6 +604,134 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -612,7 +740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D03B8D5-BAB8-450E-A664-CABADEFF022A}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A6:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
@@ -631,134 +759,6 @@
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>

--- a/TestData/FileUpload_Data.xlsx
+++ b/TestData/FileUpload_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC04F9-D7B2-416D-89D7-F262178FACF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5BB0E-6500-44D4-ACBE-97DE8791F99D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
+    <workbookView xWindow="7200" yWindow="1005" windowWidth="21600" windowHeight="13095" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/FileUpload_Data.xlsx
+++ b/TestData/FileUpload_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5BB0E-6500-44D4-ACBE-97DE8791F99D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75F2C8-26EA-46E4-B88A-B1B93BACFBEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1005" windowWidth="21600" windowHeight="13095" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,14 +522,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="2" bestFit="1" customWidth="1"/>

--- a/TestData/FileUpload_Data.xlsx
+++ b/TestData/FileUpload_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75F2C8-26EA-46E4-B88A-B1B93BACFBEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE728EAA-A00B-4947-8625-A02D817CC2B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,134 +604,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -740,10 +612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D03B8D5-BAB8-450E-A664-CABADEFF022A}">
-  <dimension ref="A6:J6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,6 +631,134 @@
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>

--- a/TestData/FileUpload_Data.xlsx
+++ b/TestData/FileUpload_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE728EAA-A00B-4947-8625-A02D817CC2B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6CAD4-5375-4B3F-ABAE-B592BBA511EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,6 +604,134 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -612,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D03B8D5-BAB8-450E-A664-CABADEFF022A}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A6:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,134 +759,6 @@
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
